--- a/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>273</v>
       </c>
       <c r="G2">
+        <v>273</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>84</v>
       </c>
       <c r="D2">
-        <v>0.001039074035361409</v>
+        <v>0.0001854621805250645</v>
       </c>
       <c r="E2">
-        <v>0.2905897359596565</v>
+        <v>0.0851059821434319</v>
       </c>
       <c r="F2">
         <v>84</v>
       </c>
       <c r="G2">
-        <v>0.01905830355826765</v>
+        <v>0.005574297625571489</v>
       </c>
       <c r="H2">
-        <v>0.02627202786970884</v>
+        <v>0.01304262317717075</v>
       </c>
       <c r="I2">
-        <v>0.04783204349223524</v>
+        <v>0.01777624059468508</v>
       </c>
       <c r="J2">
-        <v>0.1787767099449411</v>
+        <v>0.03801995515823364</v>
       </c>
       <c r="K2">
-        <v>0.00483719992917031</v>
+        <v>0.001721014734357595</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>0.1579936557682231</v>
+        <v>0.004277261439710855</v>
       </c>
       <c r="E3">
-        <v>0.7812428650213405</v>
+        <v>0.06250949809327722</v>
       </c>
       <c r="F3">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>0.02921715192496777</v>
+        <v>0.005107311066240072</v>
       </c>
       <c r="H3">
-        <v>0.2151075208093971</v>
+        <v>0.01221129298210144</v>
       </c>
       <c r="I3">
-        <v>0.2318894362542778</v>
+        <v>0.01376722613349557</v>
       </c>
       <c r="J3">
-        <v>0.2669784144964069</v>
+        <v>0.02505912631750107</v>
       </c>
       <c r="K3">
-        <v>0.009527734946459532</v>
+        <v>0.001718407962471247</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <v>0.06991565530188382</v>
+        <v>0.003701074980199337</v>
       </c>
       <c r="E4">
-        <v>0.6161503109615296</v>
+        <v>0.05916893575340509</v>
       </c>
       <c r="F4">
         <v>84</v>
       </c>
       <c r="G4">
-        <v>0.02259281766600907</v>
+        <v>0.004579616244882345</v>
       </c>
       <c r="H4">
-        <v>0.0998660596087575</v>
+        <v>0.01076601119711995</v>
       </c>
       <c r="I4">
-        <v>0.1993323222268373</v>
+        <v>0.01292823813855648</v>
       </c>
       <c r="J4">
-        <v>0.272612223168835</v>
+        <v>0.02521110186353326</v>
       </c>
       <c r="K4">
-        <v>0.005431263241916895</v>
+        <v>0.001566965598613024</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>0.001336396555416286</v>
+        <v>0.0002787499688565731</v>
       </c>
       <c r="E5">
-        <v>0.3161565539194271</v>
+        <v>0.1410107812844217</v>
       </c>
       <c r="F5">
         <v>84</v>
       </c>
       <c r="G5">
-        <v>0.02018045354634523</v>
+        <v>0.005227842833846807</v>
       </c>
       <c r="H5">
-        <v>0.0275601374451071</v>
+        <v>0.00830181036144495</v>
       </c>
       <c r="I5">
-        <v>0.06103111931588501</v>
+        <v>0.02027443004772067</v>
       </c>
       <c r="J5">
-        <v>0.18689990718849</v>
+        <v>0.04659218247979879</v>
       </c>
       <c r="K5">
-        <v>0.005172178498469293</v>
+        <v>0.001684343907982111</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>238</v>
+      </c>
+      <c r="D6">
+        <v>0.006793376989662647</v>
+      </c>
+      <c r="E6">
+        <v>0.2588178510777652</v>
+      </c>
+      <c r="F6">
+        <v>238</v>
+      </c>
+      <c r="G6">
+        <v>0.0124337007291615</v>
+      </c>
+      <c r="H6">
+        <v>0.0299899373203516</v>
+      </c>
+      <c r="I6">
+        <v>0.1408478491939604</v>
+      </c>
+      <c r="J6">
+        <v>0.05743196373805404</v>
+      </c>
+      <c r="K6">
+        <v>0.005592283327132463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>2500</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.05454195069614798</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>0.001039074035361409</v>
-      </c>
-      <c r="E7">
-        <v>0.2905897359596565</v>
-      </c>
-      <c r="F7">
-        <v>84</v>
-      </c>
-      <c r="G7">
-        <v>0.01905830355826765</v>
-      </c>
-      <c r="H7">
-        <v>0.02627202786970884</v>
-      </c>
-      <c r="I7">
-        <v>0.04783204349223524</v>
-      </c>
-      <c r="J7">
-        <v>0.1787767099449411</v>
-      </c>
-      <c r="K7">
-        <v>0.00483719992917031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>0.1579936557682231</v>
+        <v>0.0001854621805250645</v>
       </c>
       <c r="E8">
-        <v>0.7812428650213405</v>
+        <v>0.0851059821434319</v>
       </c>
       <c r="F8">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="G8">
-        <v>0.02921715192496777</v>
+        <v>0.005574297625571489</v>
       </c>
       <c r="H8">
-        <v>0.2151075208093971</v>
+        <v>0.01304262317717075</v>
       </c>
       <c r="I8">
-        <v>0.2318894362542778</v>
+        <v>0.01777624059468508</v>
       </c>
       <c r="J8">
-        <v>0.2669784144964069</v>
+        <v>0.03801995515823364</v>
       </c>
       <c r="K8">
-        <v>0.009527734946459532</v>
+        <v>0.001721014734357595</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>84</v>
       </c>
       <c r="D9">
-        <v>0.06991565530188382</v>
+        <v>0.004277261439710855</v>
       </c>
       <c r="E9">
-        <v>0.6161503109615296</v>
+        <v>0.06250949809327722</v>
       </c>
       <c r="F9">
         <v>84</v>
       </c>
       <c r="G9">
-        <v>0.02259281766600907</v>
+        <v>0.005107311066240072</v>
       </c>
       <c r="H9">
-        <v>0.0998660596087575</v>
+        <v>0.01221129298210144</v>
       </c>
       <c r="I9">
-        <v>0.1993323222268373</v>
+        <v>0.01376722613349557</v>
       </c>
       <c r="J9">
-        <v>0.272612223168835</v>
+        <v>0.02505912631750107</v>
       </c>
       <c r="K9">
-        <v>0.005431263241916895</v>
+        <v>0.001718407962471247</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>84</v>
       </c>
       <c r="D10">
-        <v>0.001336396555416286</v>
+        <v>0.003701074980199337</v>
       </c>
       <c r="E10">
-        <v>0.3161565539194271</v>
+        <v>0.05916893575340509</v>
       </c>
       <c r="F10">
         <v>84</v>
       </c>
       <c r="G10">
-        <v>0.02018045354634523</v>
+        <v>0.004579616244882345</v>
       </c>
       <c r="H10">
-        <v>0.0275601374451071</v>
+        <v>0.01076601119711995</v>
       </c>
       <c r="I10">
-        <v>0.06103111931588501</v>
+        <v>0.01292823813855648</v>
       </c>
       <c r="J10">
-        <v>0.18689990718849</v>
+        <v>0.02521110186353326</v>
       </c>
       <c r="K10">
-        <v>0.005172178498469293</v>
+        <v>0.001566965598613024</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.0002787499688565731</v>
+      </c>
+      <c r="E11">
+        <v>0.1410107812844217</v>
+      </c>
+      <c r="F11">
+        <v>84</v>
+      </c>
+      <c r="G11">
+        <v>0.005227842833846807</v>
+      </c>
+      <c r="H11">
+        <v>0.00830181036144495</v>
+      </c>
+      <c r="I11">
+        <v>0.02027443004772067</v>
+      </c>
+      <c r="J11">
+        <v>0.04659218247979879</v>
+      </c>
+      <c r="K11">
+        <v>0.001684343907982111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>238</v>
+      </c>
+      <c r="D12">
+        <v>0.006793376989662647</v>
+      </c>
+      <c r="E12">
+        <v>0.2588178510777652</v>
+      </c>
+      <c r="F12">
+        <v>238</v>
+      </c>
+      <c r="G12">
+        <v>0.0124337007291615</v>
+      </c>
+      <c r="H12">
+        <v>0.0299899373203516</v>
+      </c>
+      <c r="I12">
+        <v>0.1408478491939604</v>
+      </c>
+      <c r="J12">
+        <v>0.05743196373805404</v>
+      </c>
+      <c r="K12">
+        <v>0.005592283327132463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>2500</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.05454195069614798</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>84</v>
       </c>
       <c r="D2">
-        <v>0.0001854621805250645</v>
+        <v>0.0001685949973762035</v>
       </c>
       <c r="E2">
-        <v>0.0851059821434319</v>
+        <v>0.04236340383067727</v>
       </c>
       <c r="F2">
         <v>84</v>
       </c>
       <c r="G2">
-        <v>0.005574297625571489</v>
+        <v>0.003296305891126394</v>
       </c>
       <c r="H2">
-        <v>0.01304262317717075</v>
+        <v>0.006117138545960188</v>
       </c>
       <c r="I2">
-        <v>0.01777624059468508</v>
+        <v>0.01170196989551187</v>
       </c>
       <c r="J2">
-        <v>0.03801995515823364</v>
+        <v>0.01729478221386671</v>
       </c>
       <c r="K2">
-        <v>0.001721014734357595</v>
+        <v>0.001073705032467842</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>84</v>
       </c>
       <c r="D3">
-        <v>0.004277261439710855</v>
+        <v>0.002599451690912247</v>
       </c>
       <c r="E3">
-        <v>0.06250949809327722</v>
+        <v>0.05051677720621228</v>
       </c>
       <c r="F3">
         <v>84</v>
       </c>
       <c r="G3">
-        <v>0.005107311066240072</v>
+        <v>0.003446005284786224</v>
       </c>
       <c r="H3">
-        <v>0.01221129298210144</v>
+        <v>0.009040128905326128</v>
       </c>
       <c r="I3">
-        <v>0.01376722613349557</v>
+        <v>0.01246348908171058</v>
       </c>
       <c r="J3">
-        <v>0.02505912631750107</v>
+        <v>0.02132421731948853</v>
       </c>
       <c r="K3">
-        <v>0.001718407962471247</v>
+        <v>0.001154523342847824</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <v>0.003701074980199337</v>
+        <v>0.004177008755505085</v>
       </c>
       <c r="E4">
-        <v>0.05916893575340509</v>
+        <v>0.07502277009189129</v>
       </c>
       <c r="F4">
         <v>84</v>
       </c>
       <c r="G4">
-        <v>0.004579616244882345</v>
+        <v>0.005170559510588646</v>
       </c>
       <c r="H4">
-        <v>0.01076601119711995</v>
+        <v>0.0129931503906846</v>
       </c>
       <c r="I4">
-        <v>0.01292823813855648</v>
+        <v>0.01895631477236748</v>
       </c>
       <c r="J4">
-        <v>0.02521110186353326</v>
+        <v>0.03162738122045994</v>
       </c>
       <c r="K4">
-        <v>0.001566965598613024</v>
+        <v>0.001702926121652126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>0.0002787499688565731</v>
+        <v>0.0003022640012204647</v>
       </c>
       <c r="E5">
-        <v>0.1410107812844217</v>
+        <v>0.0695937117561698</v>
       </c>
       <c r="F5">
         <v>84</v>
       </c>
       <c r="G5">
-        <v>0.005227842833846807</v>
+        <v>0.005592648405581713</v>
       </c>
       <c r="H5">
-        <v>0.00830181036144495</v>
+        <v>0.009667002130299807</v>
       </c>
       <c r="I5">
-        <v>0.02027443004772067</v>
+        <v>0.01953458599746227</v>
       </c>
       <c r="J5">
-        <v>0.04659218247979879</v>
+        <v>0.02783872047439218</v>
       </c>
       <c r="K5">
-        <v>0.001684343907982111</v>
+        <v>0.001880043651908636</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>238</v>
       </c>
       <c r="D6">
-        <v>0.006793376989662647</v>
+        <v>0.004715193994343281</v>
       </c>
       <c r="E6">
-        <v>0.2588178510777652</v>
+        <v>0.330788949970156</v>
       </c>
       <c r="F6">
         <v>238</v>
       </c>
       <c r="G6">
-        <v>0.0124337007291615</v>
+        <v>0.0101100062020123</v>
       </c>
       <c r="H6">
-        <v>0.0299899373203516</v>
+        <v>0.02337119122967124</v>
       </c>
       <c r="I6">
-        <v>0.1408478491939604</v>
+        <v>0.2516961521469057</v>
       </c>
       <c r="J6">
-        <v>0.05743196373805404</v>
+        <v>0.03204407915472984</v>
       </c>
       <c r="K6">
-        <v>0.005592283327132463</v>
+        <v>0.003974684048444033</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>84</v>
       </c>
       <c r="D8">
-        <v>0.0001854621805250645</v>
+        <v>0.0001685949973762035</v>
       </c>
       <c r="E8">
-        <v>0.0851059821434319</v>
+        <v>0.04236340383067727</v>
       </c>
       <c r="F8">
         <v>84</v>
       </c>
       <c r="G8">
-        <v>0.005574297625571489</v>
+        <v>0.003296305891126394</v>
       </c>
       <c r="H8">
-        <v>0.01304262317717075</v>
+        <v>0.006117138545960188</v>
       </c>
       <c r="I8">
-        <v>0.01777624059468508</v>
+        <v>0.01170196989551187</v>
       </c>
       <c r="J8">
-        <v>0.03801995515823364</v>
+        <v>0.01729478221386671</v>
       </c>
       <c r="K8">
-        <v>0.001721014734357595</v>
+        <v>0.001073705032467842</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>84</v>
       </c>
       <c r="D9">
-        <v>0.004277261439710855</v>
+        <v>0.002599451690912247</v>
       </c>
       <c r="E9">
-        <v>0.06250949809327722</v>
+        <v>0.05051677720621228</v>
       </c>
       <c r="F9">
         <v>84</v>
       </c>
       <c r="G9">
-        <v>0.005107311066240072</v>
+        <v>0.003446005284786224</v>
       </c>
       <c r="H9">
-        <v>0.01221129298210144</v>
+        <v>0.009040128905326128</v>
       </c>
       <c r="I9">
-        <v>0.01376722613349557</v>
+        <v>0.01246348908171058</v>
       </c>
       <c r="J9">
-        <v>0.02505912631750107</v>
+        <v>0.02132421731948853</v>
       </c>
       <c r="K9">
-        <v>0.001718407962471247</v>
+        <v>0.001154523342847824</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>84</v>
       </c>
       <c r="D10">
-        <v>0.003701074980199337</v>
+        <v>0.004177008755505085</v>
       </c>
       <c r="E10">
-        <v>0.05916893575340509</v>
+        <v>0.07502277009189129</v>
       </c>
       <c r="F10">
         <v>84</v>
       </c>
       <c r="G10">
-        <v>0.004579616244882345</v>
+        <v>0.005170559510588646</v>
       </c>
       <c r="H10">
-        <v>0.01076601119711995</v>
+        <v>0.0129931503906846</v>
       </c>
       <c r="I10">
-        <v>0.01292823813855648</v>
+        <v>0.01895631477236748</v>
       </c>
       <c r="J10">
-        <v>0.02521110186353326</v>
+        <v>0.03162738122045994</v>
       </c>
       <c r="K10">
-        <v>0.001566965598613024</v>
+        <v>0.001702926121652126</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>84</v>
       </c>
       <c r="D11">
-        <v>0.0002787499688565731</v>
+        <v>0.0003022640012204647</v>
       </c>
       <c r="E11">
-        <v>0.1410107812844217</v>
+        <v>0.0695937117561698</v>
       </c>
       <c r="F11">
         <v>84</v>
       </c>
       <c r="G11">
-        <v>0.005227842833846807</v>
+        <v>0.005592648405581713</v>
       </c>
       <c r="H11">
-        <v>0.00830181036144495</v>
+        <v>0.009667002130299807</v>
       </c>
       <c r="I11">
-        <v>0.02027443004772067</v>
+        <v>0.01953458599746227</v>
       </c>
       <c r="J11">
-        <v>0.04659218247979879</v>
+        <v>0.02783872047439218</v>
       </c>
       <c r="K11">
-        <v>0.001684343907982111</v>
+        <v>0.001880043651908636</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>238</v>
       </c>
       <c r="D12">
-        <v>0.006793376989662647</v>
+        <v>0.004715193994343281</v>
       </c>
       <c r="E12">
-        <v>0.2588178510777652</v>
+        <v>0.330788949970156</v>
       </c>
       <c r="F12">
         <v>238</v>
       </c>
       <c r="G12">
-        <v>0.0124337007291615</v>
+        <v>0.0101100062020123</v>
       </c>
       <c r="H12">
-        <v>0.0299899373203516</v>
+        <v>0.02337119122967124</v>
       </c>
       <c r="I12">
-        <v>0.1408478491939604</v>
+        <v>0.2516961521469057</v>
       </c>
       <c r="J12">
-        <v>0.05743196373805404</v>
+        <v>0.03204407915472984</v>
       </c>
       <c r="K12">
-        <v>0.005592283327132463</v>
+        <v>0.003974684048444033</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>273</v>
       </c>
       <c r="D2">
-        <v>273</v>
-      </c>
-      <c r="E2">
-        <v>273</v>
-      </c>
-      <c r="F2">
-        <v>273</v>
-      </c>
-      <c r="G2">
-        <v>273</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>0.0001685949973762035</v>
+        <v>0.007821043487638235</v>
       </c>
       <c r="E2">
-        <v>0.04236340383067727</v>
+        <v>0.09160277061164379</v>
       </c>
       <c r="F2">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="G2">
-        <v>0.003296305891126394</v>
+        <v>0.008549279067665339</v>
       </c>
       <c r="H2">
-        <v>0.006117138545960188</v>
+        <v>0.01998637011274695</v>
       </c>
       <c r="I2">
-        <v>0.01170196989551187</v>
+        <v>0.03274468425661325</v>
       </c>
       <c r="J2">
-        <v>0.01729478221386671</v>
+        <v>0.01844873884692788</v>
       </c>
       <c r="K2">
-        <v>0.001073705032467842</v>
+        <v>0.004776195157319307</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>84</v>
-      </c>
-      <c r="D3">
-        <v>0.002599451690912247</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05051677720621228</v>
-      </c>
-      <c r="F3">
-        <v>84</v>
-      </c>
-      <c r="G3">
-        <v>0.003446005284786224</v>
-      </c>
-      <c r="H3">
-        <v>0.009040128905326128</v>
-      </c>
-      <c r="I3">
-        <v>0.01246348908171058</v>
-      </c>
-      <c r="J3">
-        <v>0.02132421731948853</v>
-      </c>
-      <c r="K3">
-        <v>0.001154523342847824</v>
+        <v>0.02129428600892425</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>0.004177008755505085</v>
+        <v>0.007821043487638235</v>
       </c>
       <c r="E4">
-        <v>0.07502277009189129</v>
+        <v>0.09160277061164379</v>
       </c>
       <c r="F4">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="G4">
-        <v>0.005170559510588646</v>
+        <v>0.008549279067665339</v>
       </c>
       <c r="H4">
-        <v>0.0129931503906846</v>
+        <v>0.01998637011274695</v>
       </c>
       <c r="I4">
-        <v>0.01895631477236748</v>
+        <v>0.03274468425661325</v>
       </c>
       <c r="J4">
-        <v>0.03162738122045994</v>
+        <v>0.01844873884692788</v>
       </c>
       <c r="K4">
-        <v>0.001702926121652126</v>
+        <v>0.004776195157319307</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>84</v>
-      </c>
-      <c r="D5">
-        <v>0.0003022640012204647</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0695937117561698</v>
-      </c>
-      <c r="F5">
-        <v>84</v>
-      </c>
-      <c r="G5">
-        <v>0.005592648405581713</v>
-      </c>
-      <c r="H5">
-        <v>0.009667002130299807</v>
-      </c>
-      <c r="I5">
-        <v>0.01953458599746227</v>
-      </c>
-      <c r="J5">
-        <v>0.02783872047439218</v>
-      </c>
-      <c r="K5">
-        <v>0.001880043651908636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>238</v>
-      </c>
-      <c r="D6">
-        <v>0.004715193994343281</v>
-      </c>
-      <c r="E6">
-        <v>0.330788949970156</v>
-      </c>
-      <c r="F6">
-        <v>238</v>
-      </c>
-      <c r="G6">
-        <v>0.0101100062020123</v>
-      </c>
-      <c r="H6">
-        <v>0.02337119122967124</v>
-      </c>
-      <c r="I6">
-        <v>0.2516961521469057</v>
-      </c>
-      <c r="J6">
-        <v>0.03204407915472984</v>
-      </c>
-      <c r="K6">
-        <v>0.003974684048444033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2500</v>
-      </c>
-      <c r="E7">
-        <v>0.05454195069614798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>84</v>
-      </c>
-      <c r="D8">
-        <v>0.0001685949973762035</v>
-      </c>
-      <c r="E8">
-        <v>0.04236340383067727</v>
-      </c>
-      <c r="F8">
-        <v>84</v>
-      </c>
-      <c r="G8">
-        <v>0.003296305891126394</v>
-      </c>
-      <c r="H8">
-        <v>0.006117138545960188</v>
-      </c>
-      <c r="I8">
-        <v>0.01170196989551187</v>
-      </c>
-      <c r="J8">
-        <v>0.01729478221386671</v>
-      </c>
-      <c r="K8">
-        <v>0.001073705032467842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>84</v>
-      </c>
-      <c r="D9">
-        <v>0.002599451690912247</v>
-      </c>
-      <c r="E9">
-        <v>0.05051677720621228</v>
-      </c>
-      <c r="F9">
-        <v>84</v>
-      </c>
-      <c r="G9">
-        <v>0.003446005284786224</v>
-      </c>
-      <c r="H9">
-        <v>0.009040128905326128</v>
-      </c>
-      <c r="I9">
-        <v>0.01246348908171058</v>
-      </c>
-      <c r="J9">
-        <v>0.02132421731948853</v>
-      </c>
-      <c r="K9">
-        <v>0.001154523342847824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>84</v>
-      </c>
-      <c r="D10">
-        <v>0.004177008755505085</v>
-      </c>
-      <c r="E10">
-        <v>0.07502277009189129</v>
-      </c>
-      <c r="F10">
-        <v>84</v>
-      </c>
-      <c r="G10">
-        <v>0.005170559510588646</v>
-      </c>
-      <c r="H10">
-        <v>0.0129931503906846</v>
-      </c>
-      <c r="I10">
-        <v>0.01895631477236748</v>
-      </c>
-      <c r="J10">
-        <v>0.03162738122045994</v>
-      </c>
-      <c r="K10">
-        <v>0.001702926121652126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>0.0003022640012204647</v>
-      </c>
-      <c r="E11">
-        <v>0.0695937117561698</v>
-      </c>
-      <c r="F11">
-        <v>84</v>
-      </c>
-      <c r="G11">
-        <v>0.005592648405581713</v>
-      </c>
-      <c r="H11">
-        <v>0.009667002130299807</v>
-      </c>
-      <c r="I11">
-        <v>0.01953458599746227</v>
-      </c>
-      <c r="J11">
-        <v>0.02783872047439218</v>
-      </c>
-      <c r="K11">
-        <v>0.001880043651908636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>238</v>
-      </c>
-      <c r="D12">
-        <v>0.004715193994343281</v>
-      </c>
-      <c r="E12">
-        <v>0.330788949970156</v>
-      </c>
-      <c r="F12">
-        <v>238</v>
-      </c>
-      <c r="G12">
-        <v>0.0101100062020123</v>
-      </c>
-      <c r="H12">
-        <v>0.02337119122967124</v>
-      </c>
-      <c r="I12">
-        <v>0.2516961521469057</v>
-      </c>
-      <c r="J12">
-        <v>0.03204407915472984</v>
-      </c>
-      <c r="K12">
-        <v>0.003974684048444033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>2500</v>
-      </c>
-      <c r="E13">
-        <v>0.05454195069614798</v>
+        <v>0.02129428600892425</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b14.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>273</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
+        <v>273</v>
+      </c>
+      <c r="E2">
+        <v>273</v>
+      </c>
+      <c r="F2">
+        <v>273</v>
+      </c>
+      <c r="G2">
+        <v>273</v>
+      </c>
+      <c r="H2">
+        <v>273</v>
+      </c>
+      <c r="I2">
+        <v>273</v>
+      </c>
+      <c r="J2">
+        <v>273</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>0.007821043487638235</v>
+        <v>0.0003446107730269432</v>
       </c>
       <c r="E2">
-        <v>0.09160277061164379</v>
+        <v>0.03909760760143399</v>
       </c>
       <c r="F2">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="G2">
-        <v>0.008549279067665339</v>
+        <v>0.004903438966721296</v>
       </c>
       <c r="H2">
-        <v>0.01998637011274695</v>
+        <v>0.006304883863776922</v>
       </c>
       <c r="I2">
-        <v>0.03274468425661325</v>
+        <v>0.01069092378020287</v>
       </c>
       <c r="J2">
-        <v>0.01844873884692788</v>
+        <v>0.01094155479222536</v>
       </c>
       <c r="K2">
-        <v>0.004776195157319307</v>
+        <v>0.002534296829253435</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>0.01185394544154406</v>
       </c>
       <c r="E3">
-        <v>0.02129428600892425</v>
+        <v>0.13757055811584</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>0.01227280776947737</v>
+      </c>
+      <c r="H3">
+        <v>0.02910933829843998</v>
+      </c>
+      <c r="I3">
+        <v>0.04843770945444703</v>
+      </c>
+      <c r="J3">
+        <v>0.02944774879142642</v>
+      </c>
+      <c r="K3">
+        <v>0.007336333394050598</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>0.007821043487638235</v>
+        <v>0.004494616761803627</v>
       </c>
       <c r="E4">
-        <v>0.09160277061164379</v>
+        <v>0.06576606165617704</v>
       </c>
       <c r="F4">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>0.008549279067665339</v>
+        <v>0.006592428311705589</v>
       </c>
       <c r="H4">
-        <v>0.01998637011274695</v>
+        <v>0.01310172537341714</v>
       </c>
       <c r="I4">
-        <v>0.03274468425661325</v>
+        <v>0.01477374648675323</v>
       </c>
       <c r="J4">
-        <v>0.01844873884692788</v>
+        <v>0.02228227350860834</v>
       </c>
       <c r="K4">
-        <v>0.004776195157319307</v>
+        <v>0.003658543340861797</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>0.0002542426809668541</v>
       </c>
       <c r="E5">
+        <v>0.04785918863490224</v>
+      </c>
+      <c r="F5">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <v>0.0058323685079813</v>
+      </c>
+      <c r="H5">
+        <v>0.007563183549791574</v>
+      </c>
+      <c r="I5">
+        <v>0.01278415322303772</v>
+      </c>
+      <c r="J5">
+        <v>0.01457755919545889</v>
+      </c>
+      <c r="K5">
+        <v>0.002883477136492729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>238</v>
+      </c>
+      <c r="D6">
+        <v>0.0009527672082185745</v>
+      </c>
+      <c r="E6">
+        <v>0.1840839893557131</v>
+      </c>
+      <c r="F6">
+        <v>238</v>
+      </c>
+      <c r="G6">
+        <v>0.01098573626950383</v>
+      </c>
+      <c r="H6">
+        <v>0.01679775444790721</v>
+      </c>
+      <c r="I6">
+        <v>0.1267035026103258</v>
+      </c>
+      <c r="J6">
+        <v>0.01258207531645894</v>
+      </c>
+      <c r="K6">
+        <v>0.007373563013970852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1082</v>
+      </c>
+      <c r="D7">
+        <v>0.02220527734607458</v>
+      </c>
+      <c r="E7">
+        <v>1.039610919076949</v>
+      </c>
+      <c r="F7">
+        <v>1082</v>
+      </c>
+      <c r="G7">
+        <v>0.0469444002956152</v>
+      </c>
+      <c r="H7">
+        <v>0.09204298676922917</v>
+      </c>
+      <c r="I7">
+        <v>0.7710142158903182</v>
+      </c>
+      <c r="J7">
+        <v>0.05716741178184748</v>
+      </c>
+      <c r="K7">
+        <v>0.03071619244292378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>238</v>
+      </c>
+      <c r="D8">
+        <v>0.007481977343559265</v>
+      </c>
+      <c r="E8">
+        <v>0.2673698798753321</v>
+      </c>
+      <c r="F8">
+        <v>238</v>
+      </c>
+      <c r="G8">
+        <v>0.01522384490817785</v>
+      </c>
+      <c r="H8">
+        <v>0.02949328254908323</v>
+      </c>
+      <c r="I8">
+        <v>0.1698437742888927</v>
+      </c>
+      <c r="J8">
+        <v>0.03069065837189555</v>
+      </c>
+      <c r="K8">
+        <v>0.009045328013598919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>238</v>
+      </c>
+      <c r="D9">
+        <v>0.001480417791754007</v>
+      </c>
+      <c r="E9">
+        <v>0.225387271028012</v>
+      </c>
+      <c r="F9">
+        <v>238</v>
+      </c>
+      <c r="G9">
+        <v>0.01391235692426562</v>
+      </c>
+      <c r="H9">
+        <v>0.02179949916899204</v>
+      </c>
+      <c r="I9">
+        <v>0.152410555165261</v>
+      </c>
+      <c r="J9">
+        <v>0.01655322313308716</v>
+      </c>
+      <c r="K9">
+        <v>0.008574791718274355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.02129428600892425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.0003446107730269432</v>
+      </c>
+      <c r="E11">
+        <v>0.03909760760143399</v>
+      </c>
+      <c r="F11">
+        <v>84</v>
+      </c>
+      <c r="G11">
+        <v>0.004903438966721296</v>
+      </c>
+      <c r="H11">
+        <v>0.006304883863776922</v>
+      </c>
+      <c r="I11">
+        <v>0.01069092378020287</v>
+      </c>
+      <c r="J11">
+        <v>0.01094155479222536</v>
+      </c>
+      <c r="K11">
+        <v>0.002534296829253435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>0.01185394544154406</v>
+      </c>
+      <c r="E12">
+        <v>0.13757055811584</v>
+      </c>
+      <c r="F12">
+        <v>180</v>
+      </c>
+      <c r="G12">
+        <v>0.01227280776947737</v>
+      </c>
+      <c r="H12">
+        <v>0.02910933829843998</v>
+      </c>
+      <c r="I12">
+        <v>0.04843770945444703</v>
+      </c>
+      <c r="J12">
+        <v>0.02944774879142642</v>
+      </c>
+      <c r="K12">
+        <v>0.007336333394050598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>0.004494616761803627</v>
+      </c>
+      <c r="E13">
+        <v>0.06576606165617704</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>0.006592428311705589</v>
+      </c>
+      <c r="H13">
+        <v>0.01310172537341714</v>
+      </c>
+      <c r="I13">
+        <v>0.01477374648675323</v>
+      </c>
+      <c r="J13">
+        <v>0.02228227350860834</v>
+      </c>
+      <c r="K13">
+        <v>0.003658543340861797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>0.0002542426809668541</v>
+      </c>
+      <c r="E14">
+        <v>0.04785918863490224</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>0.0058323685079813</v>
+      </c>
+      <c r="H14">
+        <v>0.007563183549791574</v>
+      </c>
+      <c r="I14">
+        <v>0.01278415322303772</v>
+      </c>
+      <c r="J14">
+        <v>0.01457755919545889</v>
+      </c>
+      <c r="K14">
+        <v>0.002883477136492729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>238</v>
+      </c>
+      <c r="D15">
+        <v>0.0009527672082185745</v>
+      </c>
+      <c r="E15">
+        <v>0.1840839893557131</v>
+      </c>
+      <c r="F15">
+        <v>238</v>
+      </c>
+      <c r="G15">
+        <v>0.01098573626950383</v>
+      </c>
+      <c r="H15">
+        <v>0.01679775444790721</v>
+      </c>
+      <c r="I15">
+        <v>0.1267035026103258</v>
+      </c>
+      <c r="J15">
+        <v>0.01258207531645894</v>
+      </c>
+      <c r="K15">
+        <v>0.007373563013970852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1082</v>
+      </c>
+      <c r="D16">
+        <v>0.02220527734607458</v>
+      </c>
+      <c r="E16">
+        <v>1.039610919076949</v>
+      </c>
+      <c r="F16">
+        <v>1082</v>
+      </c>
+      <c r="G16">
+        <v>0.0469444002956152</v>
+      </c>
+      <c r="H16">
+        <v>0.09204298676922917</v>
+      </c>
+      <c r="I16">
+        <v>0.7710142158903182</v>
+      </c>
+      <c r="J16">
+        <v>0.05716741178184748</v>
+      </c>
+      <c r="K16">
+        <v>0.03071619244292378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>238</v>
+      </c>
+      <c r="D17">
+        <v>0.007481977343559265</v>
+      </c>
+      <c r="E17">
+        <v>0.2673698798753321</v>
+      </c>
+      <c r="F17">
+        <v>238</v>
+      </c>
+      <c r="G17">
+        <v>0.01522384490817785</v>
+      </c>
+      <c r="H17">
+        <v>0.02949328254908323</v>
+      </c>
+      <c r="I17">
+        <v>0.1698437742888927</v>
+      </c>
+      <c r="J17">
+        <v>0.03069065837189555</v>
+      </c>
+      <c r="K17">
+        <v>0.009045328013598919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>238</v>
+      </c>
+      <c r="D18">
+        <v>0.001480417791754007</v>
+      </c>
+      <c r="E18">
+        <v>0.225387271028012</v>
+      </c>
+      <c r="F18">
+        <v>238</v>
+      </c>
+      <c r="G18">
+        <v>0.01391235692426562</v>
+      </c>
+      <c r="H18">
+        <v>0.02179949916899204</v>
+      </c>
+      <c r="I18">
+        <v>0.152410555165261</v>
+      </c>
+      <c r="J18">
+        <v>0.01655322313308716</v>
+      </c>
+      <c r="K18">
+        <v>0.008574791718274355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0.02129428600892425</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
